--- a/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Estudios-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001356877442002782</v>
+        <v>0.001353049869082412</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002474541703657815</v>
+        <v>0.002352412717782268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002015769292696035</v>
+        <v>0.001991480924577404</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.002059561346749842</v>
+        <v>0.0021583665769904</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0008729809181783998</v>
+        <v>0.000870973092986481</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0008620819405686795</v>
+        <v>0.0008720686756245431</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002349648882285224</v>
+        <v>0.002273311964947602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002161981945145342</v>
+        <v>0.002172198710112214</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001885476862309009</v>
+        <v>0.001732064191542653</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0004539493276996127</v>
+        <v>0.0005158498507006447</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0110158999151902</v>
+        <v>0.01122854931248621</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01877685917578925</v>
+        <v>0.0166738744878276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01837863523416272</v>
+        <v>0.01789762537986626</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01214685284289796</v>
+        <v>0.0124327255958958</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01057014622626281</v>
+        <v>0.01028041727057988</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01114038343974605</v>
+        <v>0.01344067512454791</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.008232006621927032</v>
+        <v>0.007539019080974758</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.009844901128319745</v>
+        <v>0.009176943032639705</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.009977932230546757</v>
+        <v>0.01032933736453647</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01158837802885665</v>
+        <v>0.01079693605643928</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.005032678690339036</v>
+        <v>0.005291473972840935</v>
       </c>
     </row>
     <row r="7">
@@ -843,35 +843,35 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00269893786505312</v>
+        <v>0.002561654179081857</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.003854996379780321</v>
+        <v>0.003980240375920787</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001792935399072345</v>
+        <v>0.001407074663536699</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004486923957071665</v>
+        <v>0.00441278950629915</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00193690562500462</v>
+        <v>0.001700275047155883</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001309447760384909</v>
+        <v>0.001206538149166177</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004212864081586555</v>
+        <v>0.004094030794791901</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.003396293204225726</v>
+        <v>0.003420559584985502</v>
       </c>
     </row>
     <row r="9">
@@ -882,38 +882,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.00367430755373159</v>
+        <v>0.004231613448507118</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01159274851256463</v>
+        <v>0.01127080345634713</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.01396068451294774</v>
+        <v>0.01349568587286599</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.009922761041477251</v>
+        <v>0.01053020608463841</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01414058462832977</v>
+        <v>0.01366330972539579</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.004093173851504138</v>
+        <v>0.003222005404500735</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.006517520831764108</v>
+        <v>0.006366778881989781</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.005676303074293501</v>
+        <v>0.005640048598388873</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01054590787261886</v>
+        <v>0.01013649320254197</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.001424119904939897</v>
+        <v>0.001609283730825336</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.008887175663498881</v>
+        <v>0.008762897967925037</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.002075620512394545</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.003105225487770625</v>
+        <v>0.003105225487770626</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.007521204931965871</v>
@@ -949,7 +949,7 @@
         <v>0.005100037757652724</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.008080446403451192</v>
+        <v>0.008080446403451191</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.008868621188925382</v>
@@ -961,7 +961,7 @@
         <v>0.003601449989726848</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.005632205105361564</v>
+        <v>0.005632205105361563</v>
       </c>
     </row>
     <row r="11">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003932592012561025</v>
+        <v>0.003858029014836036</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002099621749554694</v>
+        <v>0.002089870004704087</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0006965375668028638</v>
+        <v>0.000728088739123149</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002429115970567088</v>
+        <v>0.002423144964869983</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003483188964058753</v>
+        <v>0.003337646253422953</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003523927281364115</v>
+        <v>0.004413719925546656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002217795607375841</v>
+        <v>0.002184126445748968</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001028734292745607</v>
+        <v>0.001032457508583238</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002727584186960795</v>
+        <v>0.002737321143509694</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02182465820218975</v>
+        <v>0.0216048774423286</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0192607416691322</v>
+        <v>0.0186913080702343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01040933267583094</v>
+        <v>0.01330085505598112</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01006082557845598</v>
+        <v>0.009323433745830336</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02024571331134775</v>
+        <v>0.02037550170506771</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01524531573353361</v>
+        <v>0.01373983411450305</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01759480785840458</v>
+        <v>0.01658249701286429</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01783147566224657</v>
+        <v>0.01787401234449395</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01640215470743779</v>
+        <v>0.01670764566939501</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01180481020877683</v>
+        <v>0.01289870933010371</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01024622774797085</v>
+        <v>0.01039060161787781</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01071121866708934</v>
+        <v>0.0108575919763095</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.002075110294771619</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.004441285132393774</v>
+        <v>0.004441285132393773</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.004460735207283123</v>
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001522666740917682</v>
+        <v>0.001555144074871678</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003411278958898656</v>
+        <v>0.00341775630748008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0003914872428592907</v>
+        <v>0.0003862791731632895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.002728830168283362</v>
+        <v>0.002847492227282795</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002917054095926872</v>
+        <v>0.002988509898934472</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.003574029766522109</v>
+        <v>0.003617917543777954</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0007446414333361728</v>
+        <v>0.0007581123929536242</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.002977863129661815</v>
+        <v>0.002619890148435247</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002929116132979147</v>
+        <v>0.002846355795744142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004276381249815065</v>
+        <v>0.004210889030026469</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0009222851685031776</v>
+        <v>0.0008201342016083335</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.003450184524200897</v>
+        <v>0.003226023225432467</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.006451643546996712</v>
+        <v>0.006112186262954511</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0103487779624996</v>
+        <v>0.01022537607596378</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.003863783897592883</v>
+        <v>0.003924755018858747</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.00948996671917559</v>
+        <v>0.009169781320795441</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.008704299787514684</v>
+        <v>0.00923025082272794</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.009143174209058053</v>
+        <v>0.009433243331480247</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.004681185790335768</v>
+        <v>0.005024373129240343</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.006802998715160077</v>
+        <v>0.006731159916683927</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.006593956217033763</v>
+        <v>0.006602644460008579</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.008740174893293626</v>
+        <v>0.008282573878671843</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.003508616494019009</v>
+        <v>0.003437117478546949</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.007033471661238932</v>
+        <v>0.007014916858025647</v>
       </c>
     </row>
     <row r="16">
@@ -1455,38 +1455,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1928</v>
+        <v>1833</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>1975</v>
+        <v>2070</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3873</v>
+        <v>3747</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4119</v>
+        <v>4139</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2067</v>
+        <v>1899</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>600</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7">
@@ -1497,38 +1497,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7594</v>
+        <v>7741</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14630</v>
+        <v>12992</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8407</v>
+        <v>8187</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>11648</v>
+        <v>11922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11904</v>
+        <v>11578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7117</v>
+        <v>8587</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6459</v>
+        <v>5915</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16228</v>
+        <v>15127</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19012</v>
+        <v>19681</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12704</v>
+        <v>11837</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6653</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="8">
@@ -1634,35 +1634,35 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4557</v>
+        <v>4325</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>8275</v>
+        <v>8543</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2462</v>
+        <v>1932</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7131</v>
+        <v>7014</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4088</v>
+        <v>3589</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3519</v>
+        <v>3243</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>13808</v>
+        <v>13419</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14458</v>
+        <v>14562</v>
       </c>
     </row>
     <row r="11">
@@ -1673,38 +1673,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4830</v>
+        <v>5562</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19572</v>
+        <v>19028</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>29966</v>
+        <v>28968</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13626</v>
+        <v>14460</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22475</v>
+        <v>21716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6994</v>
+        <v>5506</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13756</v>
+        <v>13438</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15256</v>
+        <v>15158</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>34566</v>
+        <v>33224</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>4850</v>
+        <v>5480</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>37833</v>
+        <v>37304</v>
       </c>
     </row>
     <row r="12">
@@ -1807,19 +1807,19 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1773</v>
+        <v>1740</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
@@ -1828,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2523</v>
+        <v>2418</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3030</v>
+        <v>3795</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1920</v>
+        <v>1891</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3890</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="15">
@@ -1851,40 +1851,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9841</v>
+        <v>9742</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8516</v>
+        <v>8264</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5197</v>
+        <v>6640</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7061</v>
+        <v>6544</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8276</v>
+        <v>8329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6460</v>
+        <v>5822</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8944</v>
+        <v>8429</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12917</v>
+        <v>12948</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14101</v>
+        <v>14364</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>10221</v>
+        <v>11168</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10324</v>
+        <v>10469</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>15277</v>
+        <v>15486</v>
       </c>
     </row>
     <row r="16">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3738</v>
+        <v>3817</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9925</v>
+        <v>9944</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9239</v>
+        <v>9640</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7995</v>
+        <v>8191</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11220</v>
+        <v>11358</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2127</v>
+        <v>2165</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10779</v>
+        <v>9483</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15219</v>
+        <v>14789</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>25867</v>
+        <v>25471</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5081</v>
+        <v>4518</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>24169</v>
+        <v>22599</v>
       </c>
     </row>
     <row r="19">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15837</v>
+        <v>15004</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30111</v>
+        <v>29752</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10252</v>
+        <v>10413</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32129</v>
+        <v>31045</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23858</v>
+        <v>25300</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>28703</v>
+        <v>29614</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13369</v>
+        <v>14349</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24624</v>
+        <v>24364</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34260</v>
+        <v>34305</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>52868</v>
+        <v>50100</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>19330</v>
+        <v>18936</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>49271</v>
+        <v>49141</v>
       </c>
     </row>
     <row r="20">
